--- a/similarities/split_global/harmonic_similarity_timestamps_244.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,718 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A#:7', 'D#:min', 'G#:min/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:39.560000', '0:00:57.900000')]</t>
+          <t>('0:00:25.260000', '0:00:34.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:01:00.854263', '0:01:06.566371')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=39.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:44.660000')]</t>
+          <t>('0:00:28.450816', '0:00:40.095623')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:20.870746')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+          <t>('0:00:19.780000', '0:00:29.500000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:33', '0:01:43.280000')]</t>
+          <t>('0:01:02.748299', '0:01:07.543219')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
+          <t>('0:03:54.420000', '0:03:57.900000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=93.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=62.748299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Eb:7/#5', 'Ab', 'F:min7']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'G:min7']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:02.624000', '0:00:06.624000')]</t>
+          <t>('0:01:05.440000', '0:01:09.180000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:15.539000', '0:00:22.860000')]</t>
+          <t>('0:00:18.460000', '0:00:21.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=15.539']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=18.46</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:37.445000')]</t>
+          <t>('0:01:20.220000', '0:01:27.220000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_81</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C', 'A:7', 'D:min7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F/5', 'D:7', 'G:min7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:01:34.810000', '0:01:40.826000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:00:09.460000', '0:00:12.130000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=94.81</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=9.46</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:41.840000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=22.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['E', 'A', 'D', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:35.898000', '0:01:03.135000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:31.200939', '0:00:51.448740')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=35.898</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=31.200939</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Bb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:28.900000')]</t>
+          <t>('0:01:14.120000', '0:01:19.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:23.428956', '0:00:30.731632')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.560000', '0:00:19.180000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=9.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G', 'C', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'F:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:00:12.880000', '0:00:18.522000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000')]</t>
+          <t>('0:01:04.473000', '0:01:07.150000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=12.88</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=64.473</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A']]</t>
+          <t>['C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:40.049000', '0:00:48.539000')]</t>
+          <t>('0:01:58.440000', '0:02:02')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:28.960000', '0:00:49.060000')]</t>
+          <t>('0:00:10.634761', '0:00:19.597664')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
